--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H2">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I2">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J2">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7105696666666667</v>
+        <v>2.214002666666667</v>
       </c>
       <c r="N2">
-        <v>2.131709</v>
+        <v>6.642008000000001</v>
       </c>
       <c r="O2">
-        <v>0.9156951470123301</v>
+        <v>0.9692171064132561</v>
       </c>
       <c r="P2">
-        <v>0.9156951470123301</v>
+        <v>0.9692171064132561</v>
       </c>
       <c r="Q2">
-        <v>20.57545612235911</v>
+        <v>101.2153222933049</v>
       </c>
       <c r="R2">
-        <v>185.179105101232</v>
+        <v>910.937900639744</v>
       </c>
       <c r="S2">
-        <v>0.5028131677703129</v>
+        <v>0.6347405676852387</v>
       </c>
       <c r="T2">
-        <v>0.502813167770313</v>
+        <v>0.6347405676852387</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H3">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I3">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J3">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,27 +623,27 @@
         <v>0.196259</v>
       </c>
       <c r="O3">
-        <v>0.08430485298766993</v>
+        <v>0.02863856533860833</v>
       </c>
       <c r="P3">
-        <v>0.08430485298766993</v>
+        <v>0.02863856533860832</v>
       </c>
       <c r="Q3">
-        <v>1.894310359959111</v>
+        <v>2.990724783523556</v>
       </c>
       <c r="R3">
-        <v>17.048793239632</v>
+        <v>26.916523051712</v>
       </c>
       <c r="S3">
-        <v>0.04629225165978745</v>
+        <v>0.0187554048524689</v>
       </c>
       <c r="T3">
-        <v>0.04629225165978746</v>
+        <v>0.0187554048524689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.691493</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H4">
-        <v>38.074479</v>
+        <v>137.147968</v>
       </c>
       <c r="I4">
-        <v>0.2406720388519202</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J4">
-        <v>0.2406720388519202</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.7105696666666667</v>
+        <v>0.004898333333333334</v>
       </c>
       <c r="N4">
-        <v>2.131709</v>
+        <v>0.014695</v>
       </c>
       <c r="O4">
-        <v>0.9156951470123301</v>
+        <v>0.002144328248135624</v>
       </c>
       <c r="P4">
-        <v>0.9156951470123301</v>
+        <v>0.002144328248135624</v>
       </c>
       <c r="Q4">
-        <v>9.018189950512333</v>
+        <v>0.2239321544177778</v>
       </c>
       <c r="R4">
-        <v>81.16370955461099</v>
+        <v>2.01538938976</v>
       </c>
       <c r="S4">
-        <v>0.2203822179982663</v>
+        <v>0.001404321199573169</v>
       </c>
       <c r="T4">
-        <v>0.2203822179982663</v>
+        <v>0.001404321199573169</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>38.074479</v>
       </c>
       <c r="I5">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J5">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06541966666666667</v>
+        <v>2.214002666666667</v>
       </c>
       <c r="N5">
-        <v>0.196259</v>
+        <v>6.642008000000001</v>
       </c>
       <c r="O5">
-        <v>0.08430485298766993</v>
+        <v>0.9692171064132561</v>
       </c>
       <c r="P5">
-        <v>0.08430485298766993</v>
+        <v>0.9692171064132561</v>
       </c>
       <c r="Q5">
-        <v>0.8302732415623333</v>
+        <v>28.09899934598134</v>
       </c>
       <c r="R5">
-        <v>7.472459174060999</v>
+        <v>252.890994113832</v>
       </c>
       <c r="S5">
-        <v>0.02028982085365391</v>
+        <v>0.1762141777760769</v>
       </c>
       <c r="T5">
-        <v>0.02028982085365391</v>
+        <v>0.1762141777760768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.59691233333333</v>
+        <v>12.691493</v>
       </c>
       <c r="H6">
-        <v>31.790737</v>
+        <v>38.074479</v>
       </c>
       <c r="I6">
-        <v>0.200951968125294</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J6">
-        <v>0.200951968125294</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7105696666666667</v>
+        <v>0.06541966666666667</v>
       </c>
       <c r="N6">
-        <v>2.131709</v>
+        <v>0.196259</v>
       </c>
       <c r="O6">
-        <v>0.9156951470123301</v>
+        <v>0.02863856533860833</v>
       </c>
       <c r="P6">
-        <v>0.9156951470123301</v>
+        <v>0.02863856533860832</v>
       </c>
       <c r="Q6">
-        <v>7.529844464392556</v>
+        <v>0.8302732415623333</v>
       </c>
       <c r="R6">
-        <v>67.768600179533</v>
+        <v>7.472459174060999</v>
       </c>
       <c r="S6">
-        <v>0.1840107419949082</v>
+        <v>0.005206801665423328</v>
       </c>
       <c r="T6">
-        <v>0.1840107419949082</v>
+        <v>0.005206801665423326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.59691233333333</v>
+        <v>12.691493</v>
       </c>
       <c r="H7">
-        <v>31.790737</v>
+        <v>38.074479</v>
       </c>
       <c r="I7">
-        <v>0.200951968125294</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J7">
-        <v>0.200951968125294</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,33 +865,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.06541966666666667</v>
+        <v>0.004898333333333334</v>
       </c>
       <c r="N7">
-        <v>0.196259</v>
+        <v>0.014695</v>
       </c>
       <c r="O7">
-        <v>0.08430485298766993</v>
+        <v>0.002144328248135624</v>
       </c>
       <c r="P7">
-        <v>0.08430485298766993</v>
+        <v>0.002144328248135624</v>
       </c>
       <c r="Q7">
-        <v>0.6932464725425556</v>
+        <v>0.06216716321166667</v>
       </c>
       <c r="R7">
-        <v>6.239218252883</v>
+        <v>0.5595044689049999</v>
       </c>
       <c r="S7">
-        <v>0.01694122613038585</v>
+        <v>0.0003898621233848934</v>
       </c>
       <c r="T7">
-        <v>0.01694122613038585</v>
+        <v>0.0003898621233848934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4888703333333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H8">
-        <v>1.466611</v>
+        <v>33.74354</v>
       </c>
       <c r="I8">
-        <v>0.009270573592685365</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J8">
-        <v>0.009270573592685367</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7105696666666667</v>
+        <v>2.214002666666667</v>
       </c>
       <c r="N8">
-        <v>2.131709</v>
+        <v>6.642008000000001</v>
       </c>
       <c r="O8">
-        <v>0.9156951470123301</v>
+        <v>0.9692171064132561</v>
       </c>
       <c r="P8">
-        <v>0.9156951470123301</v>
+        <v>0.9692171064132561</v>
       </c>
       <c r="Q8">
-        <v>0.3473764297998889</v>
+        <v>24.90276251425778</v>
       </c>
       <c r="R8">
-        <v>3.126387868199</v>
+        <v>224.12486262832</v>
       </c>
       <c r="S8">
-        <v>0.00848901924884265</v>
+        <v>0.1561699677191685</v>
       </c>
       <c r="T8">
-        <v>0.008489019248842652</v>
+        <v>0.1561699677191685</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4888703333333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H9">
-        <v>1.466611</v>
+        <v>33.74354</v>
       </c>
       <c r="I9">
-        <v>0.009270573592685365</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J9">
-        <v>0.009270573592685367</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +995,270 @@
         <v>0.196259</v>
       </c>
       <c r="O9">
-        <v>0.08430485298766993</v>
+        <v>0.02863856533860833</v>
       </c>
       <c r="P9">
-        <v>0.08430485298766993</v>
+        <v>0.02863856533860832</v>
       </c>
       <c r="Q9">
-        <v>0.03198173424988889</v>
+        <v>0.7358303796511111</v>
       </c>
       <c r="R9">
-        <v>0.287835608249</v>
+        <v>6.622473416859999</v>
       </c>
       <c r="S9">
-        <v>0.0007815543438427148</v>
+        <v>0.004614532486952183</v>
       </c>
       <c r="T9">
-        <v>0.0007815543438427149</v>
+        <v>0.004614532486952183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.24784666666667</v>
+      </c>
+      <c r="H10">
+        <v>33.74354</v>
+      </c>
+      <c r="I10">
+        <v>0.161130015850732</v>
+      </c>
+      <c r="J10">
+        <v>0.161130015850732</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.004898333333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.014695</v>
+      </c>
+      <c r="O10">
+        <v>0.002144328248135624</v>
+      </c>
+      <c r="P10">
+        <v>0.002144328248135624</v>
+      </c>
+      <c r="Q10">
+        <v>0.05509570225555555</v>
+      </c>
+      <c r="R10">
+        <v>0.4958613202999999</v>
+      </c>
+      <c r="S10">
+        <v>0.0003455156446112654</v>
+      </c>
+      <c r="T10">
+        <v>0.0003455156446112654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1507006666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.452102</v>
+      </c>
+      <c r="I11">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="J11">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.214002666666667</v>
+      </c>
+      <c r="N11">
+        <v>6.642008000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.9692171064132561</v>
+      </c>
+      <c r="P11">
+        <v>0.9692171064132561</v>
+      </c>
+      <c r="Q11">
+        <v>0.3336516778684445</v>
+      </c>
+      <c r="R11">
+        <v>3.002865100816</v>
+      </c>
+      <c r="S11">
+        <v>0.002092393232772008</v>
+      </c>
+      <c r="T11">
+        <v>0.002092393232772007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1507006666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.452102</v>
+      </c>
+      <c r="I12">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="J12">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06541966666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.196259</v>
+      </c>
+      <c r="O12">
+        <v>0.02863856533860833</v>
+      </c>
+      <c r="P12">
+        <v>0.02863856533860832</v>
+      </c>
+      <c r="Q12">
+        <v>0.009858787379777779</v>
+      </c>
+      <c r="R12">
+        <v>0.08872908641799999</v>
+      </c>
+      <c r="S12">
+        <v>6.182633376391619E-05</v>
+      </c>
+      <c r="T12">
+        <v>6.182633376391616E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1507006666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.452102</v>
+      </c>
+      <c r="I13">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="J13">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.004898333333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.014695</v>
+      </c>
+      <c r="O13">
+        <v>0.002144328248135624</v>
+      </c>
+      <c r="P13">
+        <v>0.002144328248135624</v>
+      </c>
+      <c r="Q13">
+        <v>0.0007381820988888889</v>
+      </c>
+      <c r="R13">
+        <v>0.00664363889</v>
+      </c>
+      <c r="S13">
+        <v>4.629280566296314E-06</v>
+      </c>
+      <c r="T13">
+        <v>4.629280566296313E-06</v>
       </c>
     </row>
   </sheetData>
